--- a/Data Collection Files/servinsp22 Table.xlsx
+++ b/Data Collection Files/servinsp22 Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\School Winter 2021\4th Year Winter\Sysc 4005 Simulation + Modelling\Project\Milestone 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\School Winter 2021\4th Year Winter\Sysc 4005 Simulation + Modelling\Project\Project_Git\SYSC-4005-Project\Data Collection Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62608D7-C0FD-4981-8328-7D6766003FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E826E-6A28-4A26-B302-540F6CD4056E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5160" yWindow="4710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servinsp22" sheetId="1" r:id="rId1"/>
@@ -613,12 +613,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -627,7 +624,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Serving SP2</a:t>
+              <a:t>Component 2 Inspection Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -645,12 +642,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -672,15 +666,94 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>servinsp22!$L$4:$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>&lt;7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt;7.5, &lt;15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&gt;15, &lt;22.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&gt;22.5, &lt;30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&gt;30, &lt;37.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&gt;37.5, &lt;45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&gt;45, &lt;52.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&gt;52.5, &lt;60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&gt;60, &lt;67.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>&gt;67.5, &lt;75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;75, &lt;82.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;82.5, &lt;90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>&gt;90, &lt;97.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>&gt;97.5, &lt;105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>&gt;105, &lt;112.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>&gt;112.5, &lt;120</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[1]servinsp1!$J$4:$J$19</c:f>
@@ -752,8 +825,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="682024848"/>
         <c:axId val="682022608"/>
       </c:barChart>
@@ -764,6 +837,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -771,7 +845,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -787,10 +861,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -818,7 +889,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -828,6 +899,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Nuber of Data Points </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -846,10 +966,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -888,7 +1005,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -956,33 +1073,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -997,7 +1108,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1005,7 +1116,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1013,17 +1124,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1032,9 +1140,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1057,35 +1164,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1094,33 +1201,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1136,21 +1242,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1184,17 +1285,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1203,14 +1304,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1222,26 +1323,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1255,17 +1350,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1274,17 +1368,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1293,17 +1387,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1312,27 +1405,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1340,11 +1430,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1352,17 +1450,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1371,12 +1469,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1385,14 +1480,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1401,10 +1496,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1413,7 +1505,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1434,10 +1526,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1446,14 +1535,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1892,25 +1975,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J300"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>15.24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20.262</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.38</v>
       </c>
@@ -1927,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>25.056999999999999</v>
       </c>
@@ -1949,8 +2032,12 @@
         <f>COUNTIFS(A1:A300,"&gt;"&amp;H4,A1:A300,"&lt;"&amp;H5)</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="str">
+        <f>_xlfn.CONCAT("&lt;",H5)</f>
+        <v>&lt;7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.8280000000000003</v>
       </c>
@@ -1962,8 +2049,12 @@
         <f t="shared" ref="J5:J13" si="0">COUNTIFS(A2:A301,"&gt;"&amp;H5,A2:A301,"&lt;"&amp;H6)</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" t="str">
+        <f>_xlfn.CONCAT("&gt;",H5, ", &lt;", H6)</f>
+        <v>&gt;7.5, &lt;15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.7270000000000003</v>
       </c>
@@ -1978,8 +2069,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L19" si="2">_xlfn.CONCAT("&gt;",H6, ", &lt;", H7)</f>
+        <v>&gt;15, &lt;22.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.54300000000000004</v>
       </c>
@@ -1995,8 +2090,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;22.5, &lt;30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10.641999999999999</v>
       </c>
@@ -2008,8 +2107,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;30, &lt;37.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13.484</v>
       </c>
@@ -2021,8 +2124,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;37.5, &lt;45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.53700000000000003</v>
       </c>
@@ -2034,8 +2141,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;45, &lt;52.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.3839999999999999</v>
       </c>
@@ -2047,8 +2158,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;52.5, &lt;60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50.536999999999999</v>
       </c>
@@ -2060,8 +2175,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;60, &lt;67.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18.510999999999999</v>
       </c>
@@ -2073,8 +2192,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;67.5, &lt;75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42.023000000000003</v>
       </c>
@@ -2086,8 +2209,12 @@
         <f>COUNTIFS(A11:A310,"&gt;"&amp;H14,A11:A310,"&lt;"&amp;H15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;75, &lt;82.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.78</v>
       </c>
@@ -2096,11 +2223,15 @@
         <v>82.5</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J19" si="2">COUNTIFS(A12:A311,"&gt;"&amp;H15,A12:A311,"&lt;"&amp;H16)</f>
+        <f t="shared" ref="J15:J19" si="3">COUNTIFS(A12:A311,"&gt;"&amp;H15,A12:A311,"&lt;"&amp;H16)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;82.5, &lt;90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21.273</v>
       </c>
@@ -2109,11 +2240,15 @@
         <v>90</v>
       </c>
       <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>&gt;90, &lt;97.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8.8040000000000003</v>
       </c>
@@ -2122,11 +2257,15 @@
         <v>97.5</v>
       </c>
       <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>&gt;97.5, &lt;105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24.779</v>
       </c>
@@ -2135,11 +2274,15 @@
         <v>105</v>
       </c>
       <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>&gt;105, &lt;112.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.8320000000000001</v>
       </c>
@@ -2148,11 +2291,15 @@
         <v>112.5</v>
       </c>
       <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>&gt;112.5, &lt;120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>48.16</v>
       </c>
@@ -2161,62 +2308,62 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10.314</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>36.896000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11.374000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21.309000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12.798</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.4059999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7.3339999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11.581</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.4569999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8.1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.298</v>
       </c>
